--- a/examples/Power_Demand.xlsx
+++ b/examples/Power_Demand.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Node</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Node</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">

--- a/examples/Power_Demand.xlsx
+++ b/examples/Power_Demand.xlsx
@@ -590,8 +590,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>
@@ -7448,8 +7448,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
-    <col width="19.7109375" customWidth="1" min="3" max="3"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
     <col width="24.5709375" customWidth="1" min="5" max="5"/>
     <col width="24.5709375" customWidth="1" min="6" max="6"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.1</t>
+          <t>v0.1.2</t>
         </is>
       </c>
     </row>
